--- a/example/Example_IHC_sample_UserOptions.xlsx
+++ b/example/Example_IHC_sample_UserOptions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kazeera\PDAC\Hourglass Runs\example dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khokha lab\Documents\GitHub\Hourglass\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Comparisons" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="FeatureSets" sheetId="3" r:id="rId3"/>
     <sheet name="FeatureParameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
   <si>
     <t>MainComparison</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Smoker</t>
   </si>
   <si>
-    <t>Sex!=X</t>
-  </si>
-  <si>
     <t>pearson</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stain</t>
-  </si>
-  <si>
     <t>Patient_Cancer_Subtype</t>
   </si>
   <si>
@@ -213,39 +207,6 @@
     <t>Custom-low</t>
   </si>
   <si>
-    <t>#5FC576ff</t>
-  </si>
-  <si>
-    <t>#5899E8ff</t>
-  </si>
-  <si>
-    <t>#2EE162ff</t>
-  </si>
-  <si>
-    <t>#670CB9ff</t>
-  </si>
-  <si>
-    <t>#B6C163ff</t>
-  </si>
-  <si>
-    <t>#2F9E97ff</t>
-  </si>
-  <si>
-    <t>#FFFC4Dff</t>
-  </si>
-  <si>
-    <t>#C0632Fff</t>
-  </si>
-  <si>
-    <t>#73F5F2ff</t>
-  </si>
-  <si>
-    <t>#9B13C7ff</t>
-  </si>
-  <si>
-    <t>#761342ff</t>
-  </si>
-  <si>
     <t>GroupName</t>
   </si>
   <si>
@@ -342,13 +303,37 @@
     <t>arial</t>
   </si>
   <si>
-    <t xml:space="preserve">"ExampleData2/Example_IHC_sample_vals.csv"  </t>
-  </si>
-  <si>
-    <t>"ExampleData2/Example_IHC_sample_rowAnn.csv"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ExampleData2/Example_IHC_sample_vals.csv"  </t>
+    <t>ExampleData2/Example_IHC_sample_colAnn.csv</t>
+  </si>
+  <si>
+    <t>ExampleData2/Example_IHC_sample_rowAnn.csv</t>
+  </si>
+  <si>
+    <t>ExampleData2/Example_IHC_sample_vals.csv</t>
+  </si>
+  <si>
+    <t>#940e26ff</t>
+  </si>
+  <si>
+    <t>#fae7dcff</t>
+  </si>
+  <si>
+    <t>#4b8dbeff</t>
+  </si>
+  <si>
+    <t>#ffd966ff</t>
+  </si>
+  <si>
+    <t>#548135ff</t>
+  </si>
+  <si>
+    <t>#b4a7d6ff</t>
+  </si>
+  <si>
+    <t>#9900ffff</t>
+  </si>
+  <si>
+    <t>#351c75ff</t>
   </si>
 </sst>
 </file>
@@ -568,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -619,6 +604,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -939,59 +925,53 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1001,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="D6" s="7" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,56 +1019,44 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>107</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>108</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,13 +1064,13 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,108 +1115,108 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="7">
+        <v>89</v>
+      </c>
+      <c r="B18" s="7">
         <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D18" s="7">
         <v>3</v>
       </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="b">
         <v>1</v>
@@ -1260,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1273,52 +1241,52 @@
       <c r="D25" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1346,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
@@ -1468,9 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1481,100 +1447,103 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>71</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>72</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>73</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C12" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1585,9 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1598,39 +1565,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C4" s="20" t="b">
         <v>1</v>
@@ -1638,10 +1605,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C5" s="20" t="b">
         <v>1</v>
@@ -1656,9 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1670,101 +1635,101 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/example/Example_IHC_sample_UserOptions.xlsx
+++ b/example/Example_IHC_sample_UserOptions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t>MainComparison</t>
   </si>
@@ -912,7 +912,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1019,31 +1019,43 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="C10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="C11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">

--- a/example/Example_IHC_sample_UserOptions.xlsx
+++ b/example/Example_IHC_sample_UserOptions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>MainComparison</t>
   </si>
@@ -147,9 +147,6 @@
     <t>RdBu</t>
   </si>
   <si>
-    <t>OS time</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Custom-int</t>
   </si>
   <si>
-    <t>arial</t>
-  </si>
-  <si>
     <t>ExampleData2/Example_IHC_sample_colAnn.csv</t>
   </si>
   <si>
@@ -334,6 +328,9 @@
   </si>
   <si>
     <t>#351c75ff</t>
+  </si>
+  <si>
+    <t>OS_time</t>
   </si>
 </sst>
 </file>
@@ -912,7 +909,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -930,7 +927,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -960,7 +957,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -968,7 +965,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1020,13 +1017,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,13 +1031,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,13 +1045,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1062,13 +1059,13 @@
         <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,13 +1073,13 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1129,27 +1126,27 @@
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="7">
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7">
         <v>3</v>
@@ -1217,18 +1214,18 @@
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5" t="b">
         <v>1</v>
@@ -1261,13 +1258,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,13 +1272,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,13 +1286,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1459,101 +1456,101 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="26"/>
     </row>
@@ -1577,39 +1574,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="C1" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="20" t="b">
         <v>1</v>
@@ -1617,10 +1614,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="20" t="b">
         <v>1</v>
@@ -1647,101 +1644,101 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/example/Example_IHC_sample_UserOptions.xlsx
+++ b/example/Example_IHC_sample_UserOptions.xlsx
@@ -69,9 +69,6 @@
     <t>color_gradient</t>
   </si>
   <si>
-    <t>paired_id_column</t>
-  </si>
-  <si>
     <t>do_survival_analysis</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>IL6_Pos.Pixel.Percent</t>
-  </si>
-  <si>
     <t>NeoAdjuvant!=neo</t>
   </si>
   <si>
@@ -261,12 +255,6 @@
     <t>SMA</t>
   </si>
   <si>
-    <t>Num.Pos.per.mm.2</t>
-  </si>
-  <si>
-    <t>Pos.Pixel.Percent</t>
-  </si>
-  <si>
     <t>Patient_ID</t>
   </si>
   <si>
@@ -331,6 +319,18 @@
   </si>
   <si>
     <t>OS_time</t>
+  </si>
+  <si>
+    <t>Num_Pos_per_mm_2</t>
+  </si>
+  <si>
+    <t>Pos_Pixel_Percent</t>
+  </si>
+  <si>
+    <t>IL6.Pos_Pixel_Percent</t>
+  </si>
+  <si>
+    <t>patient_id_column</t>
   </si>
 </sst>
 </file>
@@ -908,9 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -924,10 +922,10 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -935,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -947,7 +945,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,7 +955,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1017,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,13 +1029,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1045,46 +1043,46 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7" t="b">
         <v>1</v>
@@ -1098,7 +1096,7 @@
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="7" t="b">
         <v>1</v>
@@ -1112,7 +1110,7 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7">
         <v>5</v>
@@ -1126,27 +1124,27 @@
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B18" s="7">
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18" s="7">
         <v>3</v>
@@ -1158,13 +1156,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,13 +1170,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,13 +1184,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,32 +1198,32 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="b">
         <v>1</v>
@@ -1239,7 +1237,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="7" t="b">
         <v>1</v>
@@ -1255,49 +1253,49 @@
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7" t="b">
         <v>0</v>
@@ -1311,7 +1309,7 @@
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="7" t="b">
         <v>1</v>
@@ -1325,7 +1323,7 @@
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="7" t="b">
         <v>1</v>
@@ -1339,7 +1337,7 @@
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="7" t="b">
         <v>1</v>
@@ -1353,7 +1351,7 @@
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="7" t="b">
         <v>1</v>
@@ -1367,7 +1365,7 @@
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="7" t="b">
         <v>1</v>
@@ -1381,7 +1379,7 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="7" t="b">
         <v>0</v>
@@ -1395,7 +1393,7 @@
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="7" t="b">
         <v>1</v>
@@ -1409,7 +1407,7 @@
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="7" t="b">
         <v>1</v>
@@ -1423,7 +1421,7 @@
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="7" t="b">
         <v>1</v>
@@ -1445,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1456,101 +1454,101 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="26"/>
     </row>
@@ -1563,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1574,39 +1572,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="20" t="b">
         <v>1</v>
@@ -1614,10 +1612,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="20" t="b">
         <v>1</v>
@@ -1632,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1644,101 +1642,101 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/example/Example_IHC_sample_UserOptions.xlsx
+++ b/example/Example_IHC_sample_UserOptions.xlsx
@@ -908,12 +908,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="25" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/example/Example_IHC_sample_UserOptions.xlsx
+++ b/example/Example_IHC_sample_UserOptions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>MainComparison</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>patient_id_column</t>
+  </si>
+  <si>
+    <t>feature_plots</t>
+  </si>
+  <si>
+    <t>boxplot_log10y</t>
   </si>
 </sst>
 </file>
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1155,179 +1161,179 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>104</v>
+      </c>
+      <c r="B19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="B25" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" s="7" t="b">
         <v>1</v>
@@ -1339,9 +1345,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B32" s="7" t="b">
         <v>1</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="7" t="b">
         <v>1</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="7" t="b">
         <v>1</v>
@@ -1383,21 +1389,21 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="7" t="b">
         <v>1</v>
@@ -1411,29 +1417,57 @@
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7" t="b">
+      <c r="B40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7" t="b">
         <v>1</v>
       </c>
     </row>
